--- a/DiffusionCoefficient_OlPl.xlsx
+++ b/DiffusionCoefficient_OlPl.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\47312\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/20fdf0abd89b212a/Software/MATLAB/Apps/App设计/diffusion/For github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAD6F88-B001-400B-9F57-709BD7DC5C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="101" documentId="13_ncr:1_{3D48A716-9161-47AC-9515-F254E5589A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB95E069-E195-4A13-BCA1-E115D097EC65}"/>
   <bookViews>
-    <workbookView xWindow="9680" yWindow="1490" windowWidth="18010" windowHeight="13370" xr2:uid="{97662803-A8F5-C447-90EE-18149CB83D03}"/>
+    <workbookView xWindow="910" yWindow="790" windowWidth="32150" windowHeight="18960" xr2:uid="{97662803-A8F5-C447-90EE-18149CB83D03}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,9 @@
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -43,18 +46,38 @@
   <commentList>
     <comment ref="K1" authorId="0" shapeId="0" xr:uid="{E5C758EE-D7B7-2945-91BF-37A0A4E109F5}">
       <text>
-        <t>[线程批注]
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[线程批注]
 你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
 注释:
     For import corresponding file</t>
+        </r>
       </text>
     </comment>
     <comment ref="L1" authorId="1" shapeId="0" xr:uid="{3BF3D0C1-DBBE-3849-9101-E16DE630F0B8}">
       <text>
-        <t>[线程批注]
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[线程批注]
 你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
 注释:
     For showing the D(T,P,fO2,C) equation</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -62,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="81">
   <si>
     <t xml:space="preserve">Element </t>
   </si>
@@ -229,10 +252,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PlBa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Mg (F13)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -309,10 +328,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Ba</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sr (GC)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -360,30 +375,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>binary Fe-Ni taenite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fe-Ni</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Goldstein et al. (1965); Dean and Goldstein (1986)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CNi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CNi/T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FeNiGD</t>
-  </si>
-  <si>
-    <t>none</t>
+    <t>Grocolas et al. (2025). Earth Planet. Sci. Lett.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlSrG25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sr (G25)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ba (G25)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlBaG25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlBaC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ba (C)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -793,10 +809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBAE6317-008D-2E4A-B183-FF43CE840CD3}">
-  <dimension ref="A1:S35"/>
+  <dimension ref="A1:S36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -865,7 +881,7 @@
         <v>12</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
@@ -876,7 +892,7 @@
         <v>32</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D2" s="1">
         <v>-7.8609999999999998</v>
@@ -918,7 +934,7 @@
         <v>5</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
@@ -926,10 +942,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D3" s="4">
         <f>D2-LN(6)</f>
@@ -972,7 +988,7 @@
         <v>5</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
@@ -980,10 +996,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D4" s="4">
         <f>D2-LN(6)</f>
@@ -1026,7 +1042,7 @@
         <v>5</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
@@ -1034,10 +1050,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D5" s="1">
         <v>-6.7549999999999999</v>
@@ -1079,7 +1095,7 @@
         <v>5</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
@@ -1087,10 +1103,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D6" s="4">
         <f>D5-LN(6)</f>
@@ -1133,7 +1149,7 @@
         <v>5</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
@@ -1141,10 +1157,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D7" s="4">
         <f>D5-LN(6)</f>
@@ -1187,7 +1203,7 @@
         <v>5</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
@@ -1195,10 +1211,10 @@
         <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D8" s="1">
         <v>-11.09</v>
@@ -1245,10 +1261,10 @@
         <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D9" s="4">
         <f>D8-LN(10.7)</f>
@@ -1296,10 +1312,10 @@
         <v>31</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D10" s="4">
         <f>D8-LN(10.7)</f>
@@ -1347,10 +1363,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D11" s="1">
         <v>-7.548</v>
@@ -1397,10 +1413,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D12" s="4">
         <f>D11-LN(6)</f>
@@ -1448,10 +1464,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D13" s="4">
         <f>D11-LN(6)</f>
@@ -1502,7 +1518,7 @@
         <v>32</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D14" s="1">
         <v>-7.8550000000000004</v>
@@ -1541,7 +1557,7 @@
         <v>17</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
@@ -1549,10 +1565,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D15" s="4">
         <f>D14-LN(6)</f>
@@ -1592,7 +1608,7 @@
         <v>17</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
@@ -1600,10 +1616,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D16" s="4">
         <f>D14-LN(6)</f>
@@ -1643,7 +1659,7 @@
         <v>17</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
@@ -1651,10 +1667,10 @@
         <v>7</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D17" s="1">
         <v>-6.7489999999999997</v>
@@ -1693,7 +1709,7 @@
         <v>17</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.35">
@@ -1701,10 +1717,10 @@
         <v>7</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D18" s="4">
         <f>D17-LN(6)</f>
@@ -1744,7 +1760,7 @@
         <v>17</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.35">
@@ -1752,10 +1768,10 @@
         <v>7</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D19" s="4">
         <f>D17-LN(6)</f>
@@ -1795,7 +1811,7 @@
         <v>17</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.35">
@@ -1803,10 +1819,10 @@
         <v>7</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D20" s="1">
         <v>-11.39</v>
@@ -1850,10 +1866,10 @@
         <v>7</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D21" s="4">
         <f>D20-LN(10.7)</f>
@@ -1898,10 +1914,10 @@
         <v>7</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D22" s="4">
         <f>D20-LN(10.7)</f>
@@ -1946,10 +1962,10 @@
         <v>7</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D23" s="1">
         <v>-7.7939999999999996</v>
@@ -1993,10 +2009,10 @@
         <v>7</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D24" s="4">
         <f>D23-LN(6)</f>
@@ -2041,10 +2057,10 @@
         <v>7</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D25" s="4">
         <f>D23-LN(6)</f>
@@ -2089,10 +2105,10 @@
         <v>8</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="D26" s="1">
         <v>-14.444000000000001</v>
@@ -2133,10 +2149,10 @@
         <v>30</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D27" s="1">
         <v>-7.4630000000000001</v>
@@ -2177,10 +2193,10 @@
         <v>33</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="1">
         <v>-11.77</v>
@@ -2218,10 +2234,10 @@
         <v>33</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D29" s="1">
         <v>-5.45</v>
@@ -2259,10 +2275,10 @@
         <v>33</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D30" s="1">
         <v>-8.7270000000000003</v>
@@ -2303,10 +2319,10 @@
         <v>33</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D31" s="1">
         <v>-12.81</v>
@@ -2318,7 +2334,7 @@
         <v>-32400</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>15</v>
@@ -2344,10 +2360,10 @@
         <v>33</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D32" s="1">
         <v>-13.42</v>
@@ -2385,10 +2401,10 @@
         <v>33</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D33" s="1">
         <v>-9.1750000000000007</v>
@@ -2426,10 +2442,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D34" s="1">
         <v>-12.32</v>
@@ -2441,7 +2457,7 @@
         <v>-40000</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="M34" s="1" t="s">
         <v>15</v>
@@ -2464,46 +2480,84 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="C35" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D35" s="1">
-        <v>-7.0339999999999998</v>
+        <v>-7.6840000000000002</v>
       </c>
       <c r="F35" s="1">
-        <v>2.1610000000000001E-2</v>
-      </c>
-      <c r="G35" s="1">
-        <v>-39194</v>
-      </c>
-      <c r="I35" s="1">
-        <v>24.1</v>
+        <v>-3.2309999999999999</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-43640</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="O35" s="1" t="s">
         <v>16</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>82</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="1">
+        <v>-8.1649999999999991</v>
+      </c>
+      <c r="F36" s="1">
+        <v>-3.3839999999999999</v>
+      </c>
+      <c r="G36" s="3">
+        <v>-43490</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
